--- a/app/Imports/excel-importation/2025-db-import.xlsx
+++ b/app/Imports/excel-importation/2025-db-import.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.benaya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developpement\grace_back\app\Imports\excel-importation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$1:$W$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$1:$X$28</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="345">
   <si>
     <t>user_id</t>
   </si>
@@ -1056,6 +1056,12 @@
   </si>
   <si>
     <t>conenujugement 1:cj2:cj29</t>
+  </si>
+  <si>
+    <t>nationalite</t>
+  </si>
+  <si>
+    <t>nationality</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1099,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1116,11 +1122,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1131,6 +1148,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1411,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Y31" sqref="Y31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,23 +1443,24 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="5" customWidth="1"/>
-    <col min="16" max="18" width="8.28515625" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" style="5" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" customWidth="1"/>
-    <col min="21" max="21" width="25.7109375" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="5" customWidth="1"/>
+    <col min="17" max="19" width="8.28515625" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="5" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" customWidth="1"/>
+    <col min="22" max="22" width="25.7109375" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1456,63 +1477,69 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="Y1" s="6" t="s">
+        <v>344</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>23</v>
@@ -1526,62 +1553,68 @@
       <c r="E2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="3">
+        <v>99</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3"/>
       <c r="L2" s="3">
         <v>1</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="3">
-        <v>1</v>
-      </c>
       <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3">
         <v>92</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="Y2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>39</v>
@@ -1595,62 +1628,68 @@
       <c r="E3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="3">
+        <v>99</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3">
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
         <v>3</v>
       </c>
-      <c r="L3" s="3">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="3">
-        <v>1</v>
-      </c>
       <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3">
         <v>92</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="Y3">
+        <v>99</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>51</v>
@@ -1664,58 +1703,64 @@
       <c r="E4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="3">
+        <v>99</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>2</v>
       </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4" t="s">
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="3">
-        <v>1</v>
-      </c>
+      <c r="P4" s="4"/>
       <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
         <v>92</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="4"/>
+      <c r="U4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="Y4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>63</v>
@@ -1729,62 +1774,68 @@
       <c r="E5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="3">
+        <v>99</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3">
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
         <v>7</v>
       </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="3">
+      <c r="Q5" s="3">
         <v>4</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="R5" s="3">
         <v>92</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="W5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="Y5">
+        <v>99</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>75</v>
@@ -1798,62 +1849,68 @@
       <c r="E6" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="3">
+        <v>99</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3">
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3">
         <v>9</v>
       </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="3">
+      <c r="Q6" s="3">
         <v>5</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="R6" s="3">
         <v>92</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="W6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>86</v>
       </c>
+      <c r="Y6">
+        <v>99</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>87</v>
@@ -1867,62 +1924,68 @@
       <c r="E7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="3">
+        <v>99</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3">
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
         <v>11</v>
       </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="3">
+      <c r="Q7" s="3">
         <v>4</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="R7" s="3">
         <v>92</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="T7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="W7" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>98</v>
       </c>
+      <c r="Y7">
+        <v>99</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>99</v>
@@ -1936,62 +1999,68 @@
       <c r="E8" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="3">
+        <v>99</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3">
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
         <v>13</v>
       </c>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="3">
-        <v>1</v>
-      </c>
       <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3">
         <v>92</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="T8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="W8" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>110</v>
       </c>
+      <c r="Y8">
+        <v>99</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>111</v>
@@ -2005,62 +2074,68 @@
       <c r="E9" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="3">
+        <v>99</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3">
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3">
         <v>15</v>
       </c>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>92</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="W9" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>122</v>
       </c>
+      <c r="Y9">
+        <v>99</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>123</v>
@@ -2074,62 +2149,65 @@
       <c r="E10" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="3">
+        <v>99</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3">
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
         <v>17</v>
       </c>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="3">
-        <v>1</v>
-      </c>
       <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3">
         <v>92</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="W10" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>135</v>
@@ -2143,62 +2221,65 @@
       <c r="E11" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="3">
+        <v>99</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3">
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3">
         <v>19</v>
       </c>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="P11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P11" s="3">
+      <c r="Q11" s="3">
         <v>11</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="R11" s="3">
         <v>92</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="T11" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="V11" s="4" t="s">
+      <c r="W11" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="X11" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>148</v>
@@ -2212,62 +2293,65 @@
       <c r="E12" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="3">
+        <v>99</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3">
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
         <v>21</v>
       </c>
-      <c r="L12" s="3">
-        <v>1</v>
-      </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="P12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>16</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>92</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S12" s="4" t="s">
+      <c r="T12" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="V12" s="4" t="s">
+      <c r="W12" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="X12" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>160</v>
@@ -2281,62 +2365,65 @@
       <c r="E13" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="3">
+        <v>99</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3">
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
         <v>23</v>
       </c>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="P13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P13" s="3">
+      <c r="Q13" s="3">
         <v>5</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="R13" s="3">
         <v>106</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="T13" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="V13" s="4" t="s">
+      <c r="W13" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="W13" s="3" t="s">
+      <c r="X13" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>173</v>
@@ -2350,62 +2437,63 @@
       <c r="E14" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3">
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
         <v>25</v>
       </c>
-      <c r="L14" s="3">
-        <v>1</v>
-      </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="O14" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="P14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>106</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="T14" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="W14" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>185</v>
@@ -2419,62 +2507,66 @@
       <c r="E15" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3">
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3">
         <v>27</v>
       </c>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="P15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P15" s="3">
-        <v>1</v>
-      </c>
       <c r="Q15" s="3">
+        <v>1</v>
+      </c>
+      <c r="R15" s="3">
         <v>106</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="T15" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="W15" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="Y15">
+        <v>99</v>
+      </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>197</v>
@@ -2488,62 +2580,66 @@
       <c r="E16" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3">
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3">
         <v>29</v>
       </c>
-      <c r="L16" s="3">
+      <c r="M16" s="3">
         <v>2</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="N16" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P16" s="3">
+      <c r="Q16" s="3">
         <v>2</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="R16" s="3">
         <v>106</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S16" s="4" t="s">
+      <c r="T16" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="U16" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="V16" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="V16" s="4" t="s">
+      <c r="W16" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="W16" s="3" t="s">
+      <c r="X16" s="3" t="s">
         <v>208</v>
       </c>
+      <c r="Y16">
+        <v>99</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>209</v>
@@ -2557,62 +2653,66 @@
       <c r="E17" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="I17" s="3">
-        <v>1</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3">
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3">
         <v>31</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="P17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>92</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="S17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="T17" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="U17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="V17" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="V17" s="4" t="s">
+      <c r="W17" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="X17" s="3" t="s">
         <v>219</v>
       </c>
+      <c r="Y17">
+        <v>99</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>220</v>
@@ -2626,62 +2726,66 @@
       <c r="E18" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="I18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3">
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3">
         <v>33</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="N18" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="O18" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="P18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>92</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="4" t="s">
+      <c r="T18" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="V18" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="V18" s="4" t="s">
+      <c r="W18" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="X18" s="3" t="s">
         <v>230</v>
       </c>
+      <c r="Y18">
+        <v>99</v>
+      </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>231</v>
@@ -2695,62 +2799,66 @@
       <c r="E19" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="I19" s="3">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3">
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3">
         <v>35</v>
       </c>
-      <c r="L19" s="3">
+      <c r="M19" s="3">
         <v>2</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="N19" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="O19" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="P19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P19" s="3">
+      <c r="Q19" s="3">
         <v>2</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="R19" s="3">
         <v>92</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S19" s="4" t="s">
+      <c r="T19" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="U19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="V19" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="V19" s="4" t="s">
+      <c r="W19" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="W19" s="3" t="s">
+      <c r="X19" s="3" t="s">
         <v>241</v>
       </c>
+      <c r="Y19">
+        <v>99</v>
+      </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>242</v>
@@ -2764,62 +2872,68 @@
       <c r="E20" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="3">
+        <v>99</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="I20" s="3">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3">
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3">
         <v>37</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="N20" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="O20" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="P20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>12</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>98</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S20" s="4" t="s">
+      <c r="T20" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="U20" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="V20" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="V20" s="4" t="s">
+      <c r="W20" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="X20" s="3" t="s">
         <v>253</v>
       </c>
+      <c r="Y20">
+        <v>99</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>254</v>
@@ -2833,62 +2947,68 @@
       <c r="E21" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="3">
+        <v>99</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3">
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3">
         <v>39</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="N21" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="O21" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="P21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>14</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>98</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S21" s="4" t="s">
+      <c r="T21" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="V21" s="4" t="s">
+      <c r="W21" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="X21" s="3" t="s">
         <v>265</v>
       </c>
+      <c r="Y21">
+        <v>98</v>
+      </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>266</v>
@@ -2902,62 +3022,68 @@
       <c r="E22" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="3">
+        <v>99</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3">
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3">
         <v>41</v>
       </c>
-      <c r="L22" s="3">
-        <v>1</v>
-      </c>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="3">
+        <v>1</v>
+      </c>
+      <c r="N22" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="O22" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="P22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P22" s="3">
-        <v>1</v>
-      </c>
       <c r="Q22" s="3">
+        <v>1</v>
+      </c>
+      <c r="R22" s="3">
         <v>98</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S22" s="4" t="s">
+      <c r="T22" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="V22" s="4" t="s">
+      <c r="W22" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="X22" s="3" t="s">
         <v>276</v>
       </c>
+      <c r="Y22">
+        <v>99</v>
+      </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>277</v>
@@ -2971,62 +3097,68 @@
       <c r="E23" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="3">
+        <v>99</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3">
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3">
         <v>43</v>
       </c>
-      <c r="L23" s="3">
-        <v>1</v>
-      </c>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="3">
+        <v>1</v>
+      </c>
+      <c r="N23" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="O23" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="P23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P23" s="3">
-        <v>1</v>
-      </c>
       <c r="Q23" s="3">
+        <v>1</v>
+      </c>
+      <c r="R23" s="3">
         <v>98</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="S23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S23" s="4" t="s">
+      <c r="T23" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="U23" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="V23" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="V23" s="4" t="s">
+      <c r="W23" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="W23" s="3" t="s">
+      <c r="X23" s="3" t="s">
         <v>287</v>
       </c>
+      <c r="Y23">
+        <v>100</v>
+      </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>288</v>
@@ -3040,62 +3172,68 @@
       <c r="E24" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="3">
+        <v>99</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3">
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3">
         <v>45</v>
       </c>
-      <c r="L24" s="3">
-        <v>1</v>
-      </c>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
+      <c r="N24" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="O24" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="O24" s="4" t="s">
+      <c r="P24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P24" s="3">
-        <v>1</v>
-      </c>
       <c r="Q24" s="3">
+        <v>1</v>
+      </c>
+      <c r="R24" s="3">
         <v>98</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="S24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S24" s="4" t="s">
+      <c r="T24" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="U24" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="V24" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="V24" s="4" t="s">
+      <c r="W24" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="W24" s="3" t="s">
+      <c r="X24" s="3" t="s">
         <v>298</v>
       </c>
+      <c r="Y24">
+        <v>101</v>
+      </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>299</v>
@@ -3109,58 +3247,64 @@
       <c r="E25" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="3">
+        <v>99</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="I25" s="3">
-        <v>2</v>
       </c>
       <c r="J25" s="3">
         <v>2</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3">
-        <v>1</v>
-      </c>
-      <c r="M25" s="4" t="s">
+      <c r="K25" s="3">
+        <v>2</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
+      <c r="N25" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="O25" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="O25" s="4"/>
-      <c r="P25" s="3">
-        <v>1</v>
-      </c>
+      <c r="P25" s="4"/>
       <c r="Q25" s="3">
+        <v>1</v>
+      </c>
+      <c r="R25" s="3">
         <v>92</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="S25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S25" s="4"/>
-      <c r="T25" s="3" t="s">
+      <c r="T25" s="4"/>
+      <c r="U25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U25" s="3" t="s">
+      <c r="V25" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="V25" s="4" t="s">
+      <c r="W25" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="W25" s="3" t="s">
+      <c r="X25" s="3" t="s">
         <v>309</v>
       </c>
+      <c r="Y25">
+        <v>102</v>
+      </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>310</v>
@@ -3174,58 +3318,64 @@
       <c r="E26" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="3">
+        <v>99</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3">
-        <v>1</v>
-      </c>
-      <c r="M26" s="4" t="s">
+      <c r="L26" s="3"/>
+      <c r="M26" s="3">
+        <v>1</v>
+      </c>
+      <c r="N26" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="O26" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="O26" s="4"/>
-      <c r="P26" s="3">
-        <v>1</v>
-      </c>
+      <c r="P26" s="4"/>
       <c r="Q26" s="3">
+        <v>1</v>
+      </c>
+      <c r="R26" s="3">
         <v>92</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="S26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S26" s="4"/>
-      <c r="T26" s="3" t="s">
+      <c r="T26" s="4"/>
+      <c r="U26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U26" s="3" t="s">
+      <c r="V26" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="V26" s="4" t="s">
+      <c r="W26" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="W26" s="3" t="s">
+      <c r="X26" s="3" t="s">
         <v>320</v>
       </c>
+      <c r="Y26">
+        <v>99</v>
+      </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>321</v>
@@ -3239,58 +3389,64 @@
       <c r="E27" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="3">
+        <v>99</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="I27" s="3">
-        <v>2</v>
       </c>
       <c r="J27" s="3">
         <v>2</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3">
-        <v>1</v>
-      </c>
-      <c r="M27" s="4" t="s">
+      <c r="K27" s="3">
+        <v>2</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3">
+        <v>1</v>
+      </c>
+      <c r="N27" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="O27" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="O27" s="4"/>
-      <c r="P27" s="3">
-        <v>1</v>
-      </c>
+      <c r="P27" s="4"/>
       <c r="Q27" s="3">
+        <v>1</v>
+      </c>
+      <c r="R27" s="3">
         <v>92</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="S27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S27" s="4"/>
-      <c r="T27" s="3" t="s">
+      <c r="T27" s="4"/>
+      <c r="U27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U27" s="3" t="s">
+      <c r="V27" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="V27" s="4" t="s">
+      <c r="W27" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="W27" s="3" t="s">
+      <c r="X27" s="3" t="s">
         <v>331</v>
       </c>
+      <c r="Y27">
+        <v>99</v>
+      </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>332</v>
@@ -3304,57 +3460,63 @@
       <c r="E28" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="3">
+        <v>99</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="I28" s="3">
+      <c r="J28" s="3">
         <v>2</v>
       </c>
-      <c r="J28" s="3">
-        <v>1</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3">
-        <v>1</v>
-      </c>
-      <c r="M28" s="4" t="s">
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3">
+        <v>1</v>
+      </c>
+      <c r="N28" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="O28" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="O28" s="4"/>
-      <c r="P28" s="3">
-        <v>1</v>
-      </c>
+      <c r="P28" s="4"/>
       <c r="Q28" s="3">
+        <v>1</v>
+      </c>
+      <c r="R28" s="3">
         <v>92</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="S28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S28" s="4"/>
-      <c r="T28" s="3" t="s">
+      <c r="T28" s="4"/>
+      <c r="U28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U28" s="3" t="s">
+      <c r="V28" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="V28" s="4" t="s">
+      <c r="W28" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="W28" s="3" t="s">
+      <c r="X28" s="3" t="s">
         <v>342</v>
+      </c>
+      <c r="Y28">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:W28"/>
+  <autoFilter ref="B1:X28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
